--- a/data/trans_orig/P1806_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8791</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3544</v>
+        <v>3502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19822</v>
+        <v>19469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01762620123959231</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007104932829509148</v>
+        <v>0.007020817555197253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03974498857630857</v>
+        <v>0.03903656973888488</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -762,19 +762,19 @@
         <v>33906</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25154</v>
+        <v>25299</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45378</v>
+        <v>44641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0543730490579192</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04033868310716327</v>
+        <v>0.04057132474405872</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07277018041276295</v>
+        <v>0.07158800184357961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -783,19 +783,19 @@
         <v>42697</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31180</v>
+        <v>30809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57098</v>
+        <v>57767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03804338816319131</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02778204567524503</v>
+        <v>0.02745133314523328</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05087472888967499</v>
+        <v>0.05147069954114806</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>489948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>478917</v>
+        <v>479270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>495195</v>
+        <v>495237</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9823737987604076</v>
+        <v>0.9823737987604078</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9602550114236914</v>
+        <v>0.960963430261115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9928950671704909</v>
+        <v>0.9929791824448028</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>810</v>
@@ -833,19 +833,19 @@
         <v>589674</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>578202</v>
+        <v>578939</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>598426</v>
+        <v>598281</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9456269509420808</v>
+        <v>0.9456269509420806</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9272298195872369</v>
+        <v>0.9284119981564206</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9596613168928368</v>
+        <v>0.9594286752559414</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1259</v>
@@ -854,19 +854,19 @@
         <v>1079623</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1065222</v>
+        <v>1064553</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1091140</v>
+        <v>1091511</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9619566118368087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9491252711103244</v>
+        <v>0.9485293004588522</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9722179543247546</v>
+        <v>0.972548666854767</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>17432</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11096</v>
+        <v>10621</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27037</v>
+        <v>28074</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01815523465104499</v>
+        <v>0.01815523465104498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01155645697084149</v>
+        <v>0.01106166755478597</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02815998210245363</v>
+        <v>0.02923946874688487</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -979,19 +979,19 @@
         <v>46019</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36991</v>
+        <v>37146</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58326</v>
+        <v>58289</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04124150364909842</v>
+        <v>0.04124150364909843</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03315065049254193</v>
+        <v>0.03328969227481847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05227021148386144</v>
+        <v>0.05223768021141133</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -1000,19 +1000,19 @@
         <v>63451</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51921</v>
+        <v>51828</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>79081</v>
+        <v>79252</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03056418032816792</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02501011955275916</v>
+        <v>0.0249653948028293</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03809312063990231</v>
+        <v>0.03817548461522982</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>942705</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>933100</v>
+        <v>932063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>949041</v>
+        <v>949516</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9818447653489552</v>
+        <v>0.981844765348955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9718400178975465</v>
+        <v>0.9707605312531151</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9884435430291586</v>
+        <v>0.9889383324452142</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1534</v>
@@ -1050,19 +1050,19 @@
         <v>1069830</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1057523</v>
+        <v>1057560</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1078858</v>
+        <v>1078703</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9587584963509014</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9477297885161385</v>
+        <v>0.9477623197885887</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9668493495074579</v>
+        <v>0.9667103077251814</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2423</v>
@@ -1071,19 +1071,19 @@
         <v>2012535</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1996905</v>
+        <v>1996734</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2024065</v>
+        <v>2024158</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9694358196718321</v>
+        <v>0.9694358196718319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9619068793600958</v>
+        <v>0.9618245153847702</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9749898804472407</v>
+        <v>0.9750346051971708</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>8038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4024</v>
+        <v>4248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14806</v>
+        <v>13974</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007680849298306469</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003845037932575237</v>
+        <v>0.004059672484789324</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01414800690019399</v>
+        <v>0.01335382206550423</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -1196,19 +1196,19 @@
         <v>41952</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33183</v>
+        <v>32420</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53548</v>
+        <v>53470</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04004468656829287</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03167415790764748</v>
+        <v>0.03094532135466508</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05111243235694339</v>
+        <v>0.05103806530439808</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>78</v>
@@ -1217,19 +1217,19 @@
         <v>49990</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38972</v>
+        <v>39031</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62218</v>
+        <v>63207</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0238717498267083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01860996879926916</v>
+        <v>0.01863837313419586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02971095008789358</v>
+        <v>0.0301829777165014</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>1038441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1031673</v>
+        <v>1032505</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1042455</v>
+        <v>1042231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9923191507016936</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9858519930998075</v>
+        <v>0.9866461779344964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961549620674249</v>
+        <v>0.9959403275152109</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1449</v>
@@ -1267,19 +1267,19 @@
         <v>1005690</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>994094</v>
+        <v>994172</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1014459</v>
+        <v>1015222</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.959955313431707</v>
+        <v>0.9599553134317071</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9488875676430565</v>
+        <v>0.9489619346956019</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9683258420923525</v>
+        <v>0.9690546786453348</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2467</v>
@@ -1288,19 +1288,19 @@
         <v>2044131</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2031903</v>
+        <v>2030914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2055149</v>
+        <v>2055090</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9761282501732916</v>
+        <v>0.9761282501732917</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9702890499121062</v>
+        <v>0.9698170222834986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9813900312007307</v>
+        <v>0.9813616268658042</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>47682</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34535</v>
+        <v>35440</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63792</v>
+        <v>65140</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04885768670853693</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03538718378818815</v>
+        <v>0.03631432460886407</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06536578074489774</v>
+        <v>0.06674651262828776</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>110</v>
@@ -1413,19 +1413,19 @@
         <v>71039</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57988</v>
+        <v>58558</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86757</v>
+        <v>85245</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07818124868433433</v>
+        <v>0.07818124868433432</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06381837467831716</v>
+        <v>0.06444584720547103</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09548029691922837</v>
+        <v>0.09381604403727353</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -1434,19 +1434,19 @@
         <v>118720</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99351</v>
+        <v>100241</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142142</v>
+        <v>140877</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06299598063514873</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05271822962390337</v>
+        <v>0.05319013864919576</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07542423331917303</v>
+        <v>0.07475258530211495</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>928247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>912137</v>
+        <v>910789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>941394</v>
+        <v>940489</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9511423132914631</v>
+        <v>0.951142313291463</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9346342192551023</v>
+        <v>0.9332534873717109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9646128162118121</v>
+        <v>0.9636856753911358</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1211</v>
@@ -1484,19 +1484,19 @@
         <v>837603</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>821885</v>
+        <v>823397</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>850654</v>
+        <v>850084</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9218187513156658</v>
+        <v>0.9218187513156657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9045197030807712</v>
+        <v>0.9061839559627266</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9361816253216821</v>
+        <v>0.9355541527945291</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2104</v>
@@ -1505,19 +1505,19 @@
         <v>1765851</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1742429</v>
+        <v>1743694</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1785220</v>
+        <v>1784330</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9370040193648513</v>
+        <v>0.9370040193648512</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9245757666808276</v>
+        <v>0.9252474146978851</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9472817703760968</v>
+        <v>0.9468098613508041</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>81942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65088</v>
+        <v>65514</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104993</v>
+        <v>100035</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02353782880036932</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01869641095855288</v>
+        <v>0.01881903317731242</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03015940837194556</v>
+        <v>0.02873516368804118</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>301</v>
@@ -1630,19 +1630,19 @@
         <v>192917</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170967</v>
+        <v>170779</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>217970</v>
+        <v>218218</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05220007648608858</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04626092572607</v>
+        <v>0.04620992014327672</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05897923520592761</v>
+        <v>0.05904631014982833</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>393</v>
@@ -1651,19 +1651,19 @@
         <v>274858</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>244397</v>
+        <v>246186</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>306530</v>
+        <v>306723</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03829712697336284</v>
+        <v>0.03829712697336286</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03405285228129388</v>
+        <v>0.03430212246090673</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04271011075364183</v>
+        <v>0.04273691766637572</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3399342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3376291</v>
+        <v>3381249</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3416196</v>
+        <v>3415770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9764621711996306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9698405916280546</v>
+        <v>0.9712648363119586</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9813035890414472</v>
+        <v>0.9811809668226874</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5004</v>
@@ -1701,19 +1701,19 @@
         <v>3502796</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3477743</v>
+        <v>3477495</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3524746</v>
+        <v>3524934</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9477999235139114</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9410207647940723</v>
+        <v>0.9409536898501719</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9537390742739297</v>
+        <v>0.9537900798567235</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8253</v>
@@ -1722,19 +1722,19 @@
         <v>6902140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6870468</v>
+        <v>6870275</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6932601</v>
+        <v>6930812</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9617028730266372</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9572898892463584</v>
+        <v>0.9572630823336233</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9659471477187066</v>
+        <v>0.965697877539093</v>
       </c>
     </row>
     <row r="18">
